--- a/hadoop/hbase/Q&A_hbase.xlsx
+++ b/hadoop/hbase/Q&A_hbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trann\Documents\GitHub\Learn_To_Be_Data_Engineer\hadoop\hbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CBB1A-ADA8-49DA-8897-41481AC495B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A59756-6FD3-4F85-8443-053B214B7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -46,6 +46,13 @@
   </si>
   <si>
     <t>5. HBase shell</t>
+  </si>
+  <si>
+    <t>Apache HBase is an open-source, distributed, and scalable NoSQL database modeled after Google's Bigtable. It is designed to handle large amounts of sparse data in a fault-tolerant and efficient manner. Built on top of the Hadoop Distributed File System (HDFS), HBase provides random, real-time read/write access to Big Data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Column-Oriented Storage: Data is stored in a column-family format, making it efficient for analytical and query workloads.
+  - Column Families are fundamental building blocks in HBase. A table can have multiple column families, and each column family contains columns. All columns in a column family are stored together on the disk, allowing efficient data retrieval. Column families must be defined during table creation, but individual columns in the families are dynamic (no fixed schema).</t>
   </si>
 </sst>
 </file>
@@ -95,10 +102,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +396,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,30 +413,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hadoop/hbase/Q&A_hbase.xlsx
+++ b/hadoop/hbase/Q&A_hbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trann\Documents\GitHub\Learn_To_Be_Data_Engineer\hadoop\hbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A59756-6FD3-4F85-8443-053B214B7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09047406-8608-48FD-B670-FC9BC151B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>2. Column Families</t>
-  </si>
-  <si>
     <t>1. What is Apache HBase</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>4. Store data to HBase</t>
-  </si>
-  <si>
-    <t>5. HBase shell</t>
   </si>
   <si>
     <t>Apache HBase is an open-source, distributed, and scalable NoSQL database modeled after Google's Bigtable. It is designed to handle large amounts of sparse data in a fault-tolerant and efficient manner. Built on top of the Hadoop Distributed File System (HDFS), HBase provides random, real-time read/write access to Big Data.</t>
@@ -53,6 +47,45 @@
   <si>
     <t xml:space="preserve">  - Column-Oriented Storage: Data is stored in a column-family format, making it efficient for analytical and query workloads.
   - Column Families are fundamental building blocks in HBase. A table can have multiple column families, and each column family contains columns. All columns in a column family are stored together on the disk, allowing efficient data retrieval. Column families must be defined during table creation, but individual columns in the families are dynamic (no fixed schema).</t>
+  </si>
+  <si>
+    <t>HBase is based on a master-slave architecture and relies on Hadoop's HDFS for storage and Zookeeper for coordination.
+Key Components in HBase Architecture:
+  - HBase Master: The HBase Master oversees the entire HBase cluster; Responsibilities: Region Management: Assigns regions to Region Servers and monitors their status. Schema Changes: Handles table creation, deletion, and updates. Load Balancing: Distributes regions across Region Servers to balance the load. Does not handle read/write operations directly (these are handled by Region Servers).
+  - Region Servers: Region Servers are the workers in the HBase architecture; Responsibilities:
+Manage regions, which are subsets of a table. Handle read and write requests for the data stored in the regions. Communicate directly with clients for data access; Each Region Server contains: MemStore: An in-memory storage for recent writes. HFiles: Persistent storage on HDFS for data. Write-Ahead Log (WAL): Logs all write operations for durability.
+  - Regions: Regions are horizontal partitions of an HBase table, split by row keys. Each region is hosted by a Region Server. When a region grows too large (based on a configurable threshold), it splits into smaller regions and is redistributed across Region Servers.
+  - Zookeeper: Zookeeper is a distributed coordination service used by HBase; Responsibilities:
+Tracks the status of Region Servers. Helps clients locate the appropriate Region Server for a specific row key. Ensures high availability by monitoring failures and facilitating failover.
+  - HDFS (Hadoop Distributed File System): HBase relies on HDFS for its underlying storage. Data is stored as HFiles on HDFS. HDFS provides fault tolerance and high availability by replicating data across nodes.</t>
+  </si>
+  <si>
+    <t>Write Path:
+  - Client Request: A client writes data to HBase using its API.
+  - Write-Ahead Log (WAL): The write is first recorded in the WAL for durability.
+  - MemStore: The data is temporarily stored in the MemStore (in-memory buffer).
+  - HFile: When the MemStore reaches a threshold, the data is flushed to HDFS as an HFile.
+Read Path:
+  - Client Request: A client sends a read request to HBase.
+  - Zookeeper Lookup: The client uses Zookeeper to locate the appropriate Region Server.
+  - Region Server: The Region Server retrieves the requested data from HFiles (on HDFS) or MemStore (if the data hasn’t been flushed yet).
+  - Response: The Region Server returns the data to the client.</t>
+  </si>
+  <si>
+    <t>6. HBase shell</t>
+  </si>
+  <si>
+    <t>5. Some keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Row key
+  - Timestamps and Versioning
+  - Write-Ahead Log (WAL)
+  - Namespace
+  - Snapshot</t>
+  </si>
+  <si>
+    <t>2. Column families</t>
   </si>
 </sst>
 </file>
@@ -393,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,37 +448,48 @@
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
